--- a/config/xlsx/Localization_多语言.xlsx
+++ b/config/xlsx/Localization_多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="21000" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,18 @@
     <t>下载中……</t>
   </si>
   <si>
+    <t>Boycott bad games, no pirated games. Pay attention to self protection, beware of being cheated. Moderate games benefit the brain, addicted to games hurt the body. Reasonable arrangement of games, enjoy a healthy life.</t>
+  </si>
+  <si>
+    <t>抵制不良游戏，拒绝盗版游戏。注意自我保护，谨防受骗上当.适度游戏益脑，沉迷游戏伤身。合理安排游戏，享受健康生活。</t>
+  </si>
+  <si>
+    <t>Update completed</t>
+  </si>
+  <si>
+    <t>更新完成</t>
+  </si>
+  <si>
     <t>Font</t>
   </si>
   <si>
@@ -80,15 +92,6 @@
     <t>Font_Chinese</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Font_English_Outline</t>
-  </si>
-  <si>
-    <t>Font_Chinese_Outline</t>
-  </si>
-  <si>
     <t>表头</t>
   </si>
   <si>
@@ -700,6 +703,9 @@
       </rPr>
       <t>1:1,2:1,3:1</t>
     </r>
+  </si>
+  <si>
+    <t>注释行不会被导出</t>
   </si>
 </sst>
 </file>
@@ -712,7 +718,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,13 +729,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1202,10 +1201,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1214,33 +1213,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,97 +1252,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1351,10 +1350,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1363,13 +1362,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1720,15 +1719,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.125" style="5" customWidth="1"/>
     <col min="2" max="3" width="24.25" style="5" customWidth="1"/>
@@ -1821,13 +1820,13 @@
         <v>10001003</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1835,13 +1834,27 @@
         <v>10001004</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>10001005</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1854,10 +1867,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1868,60 +1881,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -1929,7 +1942,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1937,31 +1950,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1969,56 +1982,64 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
